--- a/TestData/Book1.xlsx
+++ b/TestData/Book1.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit\eclipse-workspace\SeleniumFramework26\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC40419-5701-4233-85A9-7F12FDDA9F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A9FEAAA9-5184-486F-805F-7D47DAE33991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{E9BF37AD-F0BD-4AC2-A5FE-F8569F3C2BB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E9BF37AD-F0BD-4AC2-A5FE-F8569F3C2BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,8 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -694,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9579DC08-E558-42A4-B941-765169D6382A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -867,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54B99C5-9FF3-4D23-9FF9-5BFA79B01AE0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
